--- a/daily/Leetcode_daily.xlsx
+++ b/daily/Leetcode_daily.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="22900" yWindow="1800" windowWidth="33060" windowHeight="18160" tabRatio="500"/>
+    <workbookView xWindow="14520" yWindow="3640" windowWidth="39680" windowHeight="16660" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="163">
   <si>
     <t>Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -561,6 +561,114 @@
   </si>
   <si>
     <t>110.balance binary tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>502.IPO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Greedy/Heap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">贪心做法：每次选取可做项目中利润最大的，维护一个idx=-1，具体做法就是在成本范围内不断和上次对比利润大小，取利润大者，更新idx。如果一个项目都做不了idx不变就退出循环。同时记得累加利润后将做过的项目成本设置成无限大。需要注意的是如果资本w大于最大的capital，说明所有项目都能做，直接返回利润前k项。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>257.binary tree paths</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFS：直接前序遍历 不断更新path 到达叶子节点更新res 然后用join方法格式化答案 BFS：维护双队列 第一个队列正常操作 第二个队列储存一个string类型的path 如果有左右子树直接将它们的值加入path 到达叶子节点更新res即可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>easy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>easy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>404.sum of left leaves</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>513.find bottom left tree value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>medium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFS：为了方便先写一个是否是叶子节点的方法 然后直接先序遍历如果存在左子树并且左子树为叶子节点我们就累加ans，右子树的情况不用管直接搜即可，非要做的话可以加个如果右子树是叶子节点就不进入递归。BFS：同理进入右子树做一个是否是叶子节点的判断 是就累加ans</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BFS：层序遍历 只更新i=0的答案 即每行最前的元素值 DFS： 先序遍历 + 维护一个maxdepth 如果当前depth大于maxdepth 更新maxdepth 和 ans</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>654.maximum binary Tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>medium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFS：写法一 直接递归 找到最大值idx 建立root 将数组按idx拆为两分分别作为左子树和右子树 如果没有数组直接返回，若数组长度为1就建立叶子节点返回 / 写法二 用left和right作为分割数组的方式代替直接切割数组 单调栈：毁灭级做法 提升时间复杂度为n                          维护一个从下到上从大到小的单调栈，当入栈元素小时，将它放在栈顶元素的右子树，当入栈元素大时，不断弹出较小元素，将入栈元素的左子树设置成弹出最后的那个元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>617.merge two binary tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>easy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>700.search in binary search Tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">DFS：建立融合点 然后递归调用左右， 如果一边有一个点不存在 直接返回另外一边的点 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFS：根据BST性质 在先序遍历前加入一个判断 节点值大于val就往左子树搜 小于val就右子树搜 等于就返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>783.minimun distance between BST Nodes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inorder：写法一 用数组存 中序遍历后 双指针遍历数组找到最小差值 / 写法二：不用数组存 维护prevRoot和curRoot prev开始先设置为空 第一次遍历为prev赋值 第二次进入再更新minVal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>501.find mode in binary search tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFS： 核心在于update方法 维护base, count, maxCount, res 如果update传入的参数x 等于base继续累计数量，不等于base就 重置base为当前值x， 数量等于最大众数数量更新结果数组 即多个众数，数量大于最大众数数量更新各个值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>538.Convert BST to Greater Tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reverse_inorder： 写法一 递归逆反中序遍历 利用逆反中序遍历性质 具体做法维护全局变量total 累加total 并赋值给当前节点 / 写法二  迭代逆反中序遍历 同理  / 写法三 BFS搭配栈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -634,12 +742,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -648,28 +776,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -683,10 +793,57 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="23">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1016,10 +1173,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E207"/>
+  <dimension ref="A1:E212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="175" workbookViewId="0">
-      <selection activeCell="D177" sqref="D177"/>
+    <sheetView tabSelected="1" topLeftCell="A192" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="E192" sqref="E192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1028,7 +1185,8 @@
     <col min="2" max="2" width="9.1640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="79.5" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="1"/>
+    <col min="5" max="6" width="13.5" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1046,16 +1204,16 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="13" t="s">
         <v>69</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -1063,43 +1221,43 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="4"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="13"/>
       <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="4"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="13"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="4"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="13"/>
     </row>
     <row r="6" spans="1:5" ht="33" customHeight="1">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="4"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="13"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="9" t="s">
+      <c r="B7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="13" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -1107,43 +1265,43 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="4"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="13"/>
       <c r="E8" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="4"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="13"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="4"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="13"/>
     </row>
     <row r="11" spans="1:5" ht="98" customHeight="1">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="4"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="13"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="13" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -1151,571 +1309,571 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="4"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="13"/>
       <c r="E13" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="4"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="13"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="4"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="13"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="4"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="13"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="5">
+      <c r="B17" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="11">
         <v>44418</v>
       </c>
-      <c r="D17" s="4"/>
+      <c r="D17" s="13"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="4"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="13"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="4"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="13"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="4"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="13"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="4"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="13"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="11">
         <v>44418</v>
       </c>
-      <c r="D22" s="3"/>
+      <c r="D22" s="14"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="3"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="14"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="3"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="14"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="3"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="14"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="3"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="14"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="11">
         <v>44418</v>
       </c>
-      <c r="D27" s="4"/>
+      <c r="D27" s="13"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="4"/>
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="13"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="4"/>
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="13"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="4"/>
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="13"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="4"/>
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="13"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="5">
+      <c r="B32" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="11">
         <v>44419</v>
       </c>
-      <c r="D32" s="4"/>
+      <c r="D32" s="13"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="7"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="4"/>
+      <c r="A33" s="12"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="13"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="7"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="4"/>
+      <c r="A34" s="12"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="13"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="7"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="4"/>
+      <c r="A35" s="12"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="13"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="7"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="4"/>
+      <c r="A36" s="12"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="13"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="5">
+      <c r="B37" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="11">
         <v>44419</v>
       </c>
-      <c r="D37" s="4"/>
+      <c r="D37" s="13"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="4"/>
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="13"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="4"/>
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="13"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="4"/>
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="13"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="4"/>
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="13"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" s="5">
+      <c r="B42" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="11">
         <v>44420</v>
       </c>
-      <c r="D42" s="4"/>
+      <c r="D42" s="13"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="7"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="4"/>
+      <c r="A43" s="12"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="13"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="7"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="4"/>
+      <c r="A44" s="12"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="13"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="7"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="4"/>
+      <c r="A45" s="12"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="13"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="7"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="4"/>
+      <c r="A46" s="12"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="13"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C47" s="5">
+      <c r="B47" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="11">
         <v>44420</v>
       </c>
-      <c r="D47" s="4"/>
+      <c r="D47" s="13"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="4"/>
+      <c r="A48" s="10"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="13"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="4"/>
+      <c r="A49" s="10"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="13"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="4"/>
+      <c r="A50" s="10"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="13"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="4"/>
+      <c r="A51" s="10"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="13"/>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="2" t="s">
+      <c r="A52" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C52" s="5">
+      <c r="C52" s="11">
         <v>44421</v>
       </c>
-      <c r="D52" s="4"/>
+      <c r="D52" s="13"/>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="4"/>
+      <c r="A53" s="10"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="13"/>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="4"/>
+      <c r="A54" s="10"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="13"/>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="4"/>
+      <c r="A55" s="10"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="13"/>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="4"/>
+      <c r="A56" s="10"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="13"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C57" s="5">
+      <c r="C57" s="11">
         <v>44422</v>
       </c>
-      <c r="D57" s="8"/>
+      <c r="D57" s="9"/>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="2"/>
-      <c r="B58" s="7"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="8"/>
+      <c r="A58" s="10"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="9"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="2"/>
-      <c r="B59" s="7"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="8"/>
+      <c r="A59" s="10"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="9"/>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="2"/>
-      <c r="B60" s="7"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="8"/>
+      <c r="A60" s="10"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="9"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="2"/>
-      <c r="B61" s="7"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="8"/>
+      <c r="A61" s="10"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="9"/>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="2" t="s">
+      <c r="A62" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C62" s="5">
+      <c r="C62" s="11">
         <v>44423</v>
       </c>
-      <c r="D62" s="7"/>
+      <c r="D62" s="12"/>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="7"/>
+      <c r="A63" s="10"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="12"/>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="7"/>
+      <c r="A64" s="10"/>
+      <c r="B64" s="10"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="12"/>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="7"/>
+      <c r="A65" s="10"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="12"/>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="7"/>
+      <c r="A66" s="10"/>
+      <c r="B66" s="10"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="12"/>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="2" t="s">
+      <c r="A67" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C67" s="5">
+      <c r="C67" s="11">
         <v>44423</v>
       </c>
-      <c r="D67" s="7"/>
+      <c r="D67" s="12"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="7"/>
+      <c r="A68" s="10"/>
+      <c r="B68" s="10"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="12"/>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="7"/>
+      <c r="A69" s="10"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="12"/>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="2"/>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="7"/>
+      <c r="A70" s="10"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="12"/>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="7"/>
+      <c r="A71" s="10"/>
+      <c r="B71" s="10"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="12"/>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="2" t="s">
+      <c r="A72" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C72" s="5">
+      <c r="C72" s="11">
         <v>44423</v>
       </c>
-      <c r="D72" s="2"/>
+      <c r="D72" s="10"/>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
+      <c r="A73" s="10"/>
+      <c r="B73" s="10"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="10"/>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
+      <c r="A74" s="10"/>
+      <c r="B74" s="10"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="10"/>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="2"/>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
+      <c r="A75" s="10"/>
+      <c r="B75" s="10"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="10"/>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="2"/>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
+      <c r="A76" s="10"/>
+      <c r="B76" s="10"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="10"/>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="7" t="s">
+      <c r="A77" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C77" s="5">
+      <c r="B77" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77" s="11">
         <v>44424</v>
       </c>
-      <c r="D77" s="2"/>
+      <c r="D77" s="10"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="7"/>
-      <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
+      <c r="A78" s="12"/>
+      <c r="B78" s="10"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="10"/>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="7"/>
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
+      <c r="A79" s="12"/>
+      <c r="B79" s="10"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="7"/>
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
+      <c r="A80" s="12"/>
+      <c r="B80" s="10"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="10"/>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="7"/>
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
+      <c r="A81" s="12"/>
+      <c r="B81" s="10"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="10"/>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="7" t="s">
+      <c r="A82" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C82" s="5">
+      <c r="C82" s="11">
         <v>44424</v>
       </c>
-      <c r="D82" s="2"/>
+      <c r="D82" s="10"/>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="7"/>
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
+      <c r="A83" s="12"/>
+      <c r="B83" s="10"/>
+      <c r="C83" s="10"/>
+      <c r="D83" s="10"/>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="7"/>
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
+      <c r="A84" s="12"/>
+      <c r="B84" s="10"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="10"/>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="7"/>
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
+      <c r="A85" s="12"/>
+      <c r="B85" s="10"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="10"/>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="7"/>
-      <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
+      <c r="A86" s="12"/>
+      <c r="B86" s="10"/>
+      <c r="C86" s="10"/>
+      <c r="D86" s="10"/>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="2" t="s">
+      <c r="A87" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C87" s="5">
+      <c r="B87" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C87" s="11">
         <v>44424</v>
       </c>
-      <c r="D87" s="2"/>
+      <c r="D87" s="10"/>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="2"/>
-      <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
+      <c r="A88" s="10"/>
+      <c r="B88" s="10"/>
+      <c r="C88" s="10"/>
+      <c r="D88" s="10"/>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="2"/>
-      <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
+      <c r="A89" s="10"/>
+      <c r="B89" s="10"/>
+      <c r="C89" s="10"/>
+      <c r="D89" s="10"/>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="2"/>
-      <c r="B90" s="2"/>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
+      <c r="A90" s="10"/>
+      <c r="B90" s="10"/>
+      <c r="C90" s="10"/>
+      <c r="D90" s="10"/>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="2"/>
-      <c r="B91" s="2"/>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
+      <c r="A91" s="10"/>
+      <c r="B91" s="10"/>
+      <c r="C91" s="10"/>
+      <c r="D91" s="10"/>
     </row>
     <row r="92" spans="1:4" ht="75" customHeight="1">
       <c r="A92" s="1" t="s">
@@ -1724,7 +1882,7 @@
       <c r="B92" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C92" s="6">
+      <c r="C92" s="4">
         <v>44425</v>
       </c>
     </row>
@@ -1735,7 +1893,7 @@
       <c r="B93" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C93" s="6">
+      <c r="C93" s="4">
         <v>44425</v>
       </c>
     </row>
@@ -1746,40 +1904,40 @@
       <c r="B94" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C94" s="6">
+      <c r="C94" s="4">
         <v>44425</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="75" customHeight="1">
-      <c r="A95" s="11" t="s">
+      <c r="A95" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C95" s="6">
+      <c r="C95" s="4">
         <v>44426</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="75" customHeight="1">
-      <c r="A96" s="11" t="s">
+      <c r="A96" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C96" s="6">
+      <c r="C96" s="4">
         <v>44426</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="75" customHeight="1">
-      <c r="A97" s="11" t="s">
+      <c r="A97" s="5" t="s">
         <v>48</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C97" s="6">
+      <c r="C97" s="4">
         <v>44426</v>
       </c>
       <c r="E97" s="1" t="s">
@@ -1793,7 +1951,7 @@
       <c r="B98" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C98" s="6">
+      <c r="C98" s="4">
         <v>44427</v>
       </c>
     </row>
@@ -1801,10 +1959,10 @@
       <c r="A99" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B99" s="11" t="s">
+      <c r="B99" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C99" s="6">
+      <c r="C99" s="4">
         <v>44427</v>
       </c>
     </row>
@@ -1815,7 +1973,7 @@
       <c r="B100" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C100" s="6">
+      <c r="C100" s="4">
         <v>44427</v>
       </c>
     </row>
@@ -1826,18 +1984,18 @@
       <c r="B101" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C101" s="6">
+      <c r="C101" s="4">
         <v>44428</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="75" customHeight="1">
-      <c r="A102" s="11" t="s">
+      <c r="A102" s="5" t="s">
         <v>54</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C102" s="6">
+      <c r="C102" s="4">
         <v>44428</v>
       </c>
     </row>
@@ -1845,10 +2003,10 @@
       <c r="A103" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B103" s="11" t="s">
+      <c r="B103" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C103" s="6">
+      <c r="C103" s="4">
         <v>44428</v>
       </c>
     </row>
@@ -1859,7 +2017,7 @@
       <c r="B104" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C104" s="6">
+      <c r="C104" s="4">
         <v>44428</v>
       </c>
     </row>
@@ -1870,7 +2028,7 @@
       <c r="B105" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C105" s="6">
+      <c r="C105" s="4">
         <v>44428</v>
       </c>
     </row>
@@ -1881,7 +2039,7 @@
       <c r="B106" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C106" s="6">
+      <c r="C106" s="4">
         <v>44429</v>
       </c>
     </row>
@@ -1892,29 +2050,29 @@
       <c r="B107" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C107" s="6">
+      <c r="C107" s="4">
         <v>44429</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="75" customHeight="1">
-      <c r="A108" s="12" t="s">
+      <c r="A108" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B108" s="13" t="s">
+      <c r="B108" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C108" s="14">
+      <c r="C108" s="8">
         <v>44429</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="75" customHeight="1">
-      <c r="A109" s="11" t="s">
+      <c r="A109" s="5" t="s">
         <v>60</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C109" s="6">
+      <c r="C109" s="4">
         <v>44429</v>
       </c>
     </row>
@@ -1925,7 +2083,7 @@
       <c r="B110" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C110" s="6">
+      <c r="C110" s="4">
         <v>44430</v>
       </c>
     </row>
@@ -1936,7 +2094,7 @@
       <c r="B111" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C111" s="6">
+      <c r="C111" s="4">
         <v>44430</v>
       </c>
     </row>
@@ -1947,7 +2105,7 @@
       <c r="B112" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C112" s="6">
+      <c r="C112" s="4">
         <v>44430</v>
       </c>
     </row>
@@ -1958,18 +2116,18 @@
       <c r="B113" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C113" s="6">
+      <c r="C113" s="4">
         <v>44431</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="75" customHeight="1">
-      <c r="A114" s="11" t="s">
+      <c r="A114" s="5" t="s">
         <v>63</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C114" s="6">
+      <c r="C114" s="4">
         <v>44431</v>
       </c>
     </row>
@@ -1980,7 +2138,7 @@
       <c r="B115" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C115" s="6">
+      <c r="C115" s="4">
         <v>44431</v>
       </c>
     </row>
@@ -1991,7 +2149,7 @@
       <c r="B116" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C116" s="6">
+      <c r="C116" s="4">
         <v>44432</v>
       </c>
     </row>
@@ -2002,7 +2160,7 @@
       <c r="B117" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C117" s="6">
+      <c r="C117" s="4">
         <v>44432</v>
       </c>
     </row>
@@ -2013,40 +2171,40 @@
       <c r="B118" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C118" s="6">
+      <c r="C118" s="4">
         <v>44432</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="75" customHeight="1">
-      <c r="A119" s="11" t="s">
+      <c r="A119" s="5" t="s">
         <v>74</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C119" s="6">
+      <c r="C119" s="4">
         <v>44432</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="75" customHeight="1">
-      <c r="A120" s="11" t="s">
+      <c r="A120" s="5" t="s">
         <v>76</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C120" s="6">
+      <c r="C120" s="4">
         <v>44432</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="75" customHeight="1">
-      <c r="A121" s="11" t="s">
+      <c r="A121" s="5" t="s">
         <v>77</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C121" s="6">
+      <c r="C121" s="4">
         <v>44432</v>
       </c>
     </row>
@@ -2057,18 +2215,18 @@
       <c r="B122" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C122" s="6">
+      <c r="C122" s="4">
         <v>44432</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="75" customHeight="1">
-      <c r="A123" s="11" t="s">
+      <c r="A123" s="5" t="s">
         <v>80</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C123" s="6">
+      <c r="C123" s="4">
         <v>44432</v>
       </c>
     </row>
@@ -2079,18 +2237,18 @@
       <c r="B124" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C124" s="6">
+      <c r="C124" s="4">
         <v>44432</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="75" customHeight="1">
-      <c r="A125" s="11" t="s">
+      <c r="A125" s="5" t="s">
         <v>82</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C125" s="6">
+      <c r="C125" s="4">
         <v>44432</v>
       </c>
     </row>
@@ -2101,172 +2259,172 @@
       <c r="B126" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C126" s="6">
+      <c r="C126" s="4">
         <v>44432</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="75" customHeight="1">
-      <c r="A127" s="11" t="s">
+      <c r="A127" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C127" s="6">
+      <c r="C127" s="4">
         <v>44433</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="75" customHeight="1">
-      <c r="A128" s="11" t="s">
+      <c r="A128" s="5" t="s">
         <v>85</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C128" s="6">
+      <c r="C128" s="4">
         <v>44433</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="75" customHeight="1">
-      <c r="A129" s="11" t="s">
+      <c r="A129" s="5" t="s">
         <v>86</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C129" s="6">
+      <c r="C129" s="4">
         <v>44433</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="75" customHeight="1">
-      <c r="A130" s="11" t="s">
+      <c r="A130" s="5" t="s">
         <v>87</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C130" s="6">
+      <c r="C130" s="4">
         <v>44433</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="75" customHeight="1">
-      <c r="A131" s="11" t="s">
+      <c r="A131" s="5" t="s">
         <v>88</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C131" s="6">
+      <c r="C131" s="4">
         <v>44433</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="75" customHeight="1">
-      <c r="A132" s="11" t="s">
+      <c r="A132" s="5" t="s">
         <v>89</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C132" s="6">
+      <c r="C132" s="4">
         <v>44433</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="75" customHeight="1">
-      <c r="A133" s="11" t="s">
+      <c r="A133" s="5" t="s">
         <v>90</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C133" s="6">
+      <c r="C133" s="4">
         <v>44433</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="75" customHeight="1">
-      <c r="A134" s="11" t="s">
+      <c r="A134" s="5" t="s">
         <v>91</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C134" s="6">
+      <c r="C134" s="4">
         <v>44433</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="75" customHeight="1">
-      <c r="A135" s="11" t="s">
+      <c r="A135" s="5" t="s">
         <v>92</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C135" s="6">
+      <c r="C135" s="4">
         <v>44434</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="75" customHeight="1">
-      <c r="A136" s="11" t="s">
+      <c r="A136" s="5" t="s">
         <v>93</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C136" s="6">
+      <c r="C136" s="4">
         <v>44434</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="75" customHeight="1">
-      <c r="A137" s="11" t="s">
+      <c r="A137" s="5" t="s">
         <v>95</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C137" s="6">
+      <c r="C137" s="4">
         <v>44434</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="75" customHeight="1">
-      <c r="A138" s="11" t="s">
+      <c r="A138" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C138" s="6">
+      <c r="C138" s="4">
         <v>44434</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="75" customHeight="1">
-      <c r="A139" s="11" t="s">
+      <c r="A139" s="5" t="s">
         <v>97</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C139" s="6">
+      <c r="C139" s="4">
         <v>44434</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="75" customHeight="1">
-      <c r="A140" s="11" t="s">
+      <c r="A140" s="5" t="s">
         <v>98</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C140" s="6">
+      <c r="C140" s="4">
         <v>44434</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="75" customHeight="1">
-      <c r="A141" s="11" t="s">
+      <c r="A141" s="5" t="s">
         <v>99</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C141" s="6">
+      <c r="C141" s="4">
         <v>44434</v>
       </c>
     </row>
@@ -2277,7 +2435,7 @@
       <c r="B142" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C142" s="6">
+      <c r="C142" s="4">
         <v>44434</v>
       </c>
     </row>
@@ -2285,143 +2443,143 @@
       <c r="A143" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C143" s="6">
+      <c r="C143" s="4">
         <v>44435</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="75" customHeight="1">
-      <c r="A144" s="11" t="s">
+      <c r="A144" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C144" s="6">
+      <c r="C144" s="4">
         <v>44436</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="75" customHeight="1">
-      <c r="A145" s="11" t="s">
+      <c r="A145" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C145" s="6">
+      <c r="C145" s="4">
         <v>44436</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="75" customHeight="1">
-      <c r="A146" s="11" t="s">
+      <c r="A146" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C146" s="6">
+      <c r="C146" s="4">
         <v>44436</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="75" customHeight="1">
-      <c r="A147" s="11" t="s">
+      <c r="A147" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C147" s="6">
+      <c r="C147" s="4">
         <v>44436</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="75" customHeight="1">
-      <c r="A148" s="11" t="s">
+      <c r="A148" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C148" s="6">
+      <c r="C148" s="4">
         <v>44436</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="75" customHeight="1">
-      <c r="A149" s="11" t="s">
+      <c r="A149" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C149" s="6">
+      <c r="C149" s="4">
         <v>44436</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="75" customHeight="1">
-      <c r="A150" s="11" t="s">
+      <c r="A150" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C150" s="6">
+      <c r="C150" s="4">
         <v>44436</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="75" customHeight="1">
-      <c r="A151" s="11" t="s">
+      <c r="A151" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C151" s="6">
+      <c r="C151" s="4">
         <v>44437</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="75" customHeight="1">
-      <c r="A152" s="11" t="s">
+      <c r="A152" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C152" s="6">
+      <c r="C152" s="4">
         <v>44437</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="75" customHeight="1">
-      <c r="A153" s="11" t="s">
+      <c r="A153" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C153" s="14">
+      <c r="C153" s="8">
         <v>44437</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="75" customHeight="1">
-      <c r="A154" s="11" t="s">
+      <c r="A154" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C154" s="14">
+      <c r="C154" s="8">
         <v>44438</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="75" customHeight="1">
-      <c r="A155" s="11" t="s">
+      <c r="A155" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C155" s="14">
+      <c r="C155" s="8">
         <v>44438</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="75" customHeight="1">
-      <c r="A156" s="11" t="s">
+      <c r="A156" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C156" s="14">
+      <c r="C156" s="8">
         <v>44438</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="75" customHeight="1">
-      <c r="A157" s="11" t="s">
+      <c r="A157" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C157" s="14">
+      <c r="C157" s="8">
         <v>44438</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="75" customHeight="1">
-      <c r="A158" s="11" t="s">
+      <c r="A158" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C158" s="14">
+      <c r="C158" s="8">
         <v>44438</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="75" customHeight="1">
-      <c r="A159" s="11" t="s">
+      <c r="A159" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C159" s="14">
+      <c r="C159" s="8">
         <v>44439</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="75" customHeight="1">
-      <c r="A160" s="11" t="s">
+      <c r="A160" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C160" s="14">
+      <c r="C160" s="8">
         <v>44439</v>
       </c>
     </row>
@@ -2429,7 +2587,7 @@
       <c r="A161" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C161" s="14">
+      <c r="C161" s="8">
         <v>44439</v>
       </c>
     </row>
@@ -2437,7 +2595,7 @@
       <c r="A162" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C162" s="14">
+      <c r="C162" s="8">
         <v>44439</v>
       </c>
     </row>
@@ -2445,15 +2603,15 @@
       <c r="A163" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C163" s="14">
+      <c r="C163" s="8">
         <v>44439</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="75" customHeight="1">
-      <c r="A164" s="11" t="s">
+      <c r="A164" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C164" s="14">
+      <c r="C164" s="8">
         <v>44439</v>
       </c>
     </row>
@@ -2461,55 +2619,55 @@
       <c r="A165" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C165" s="14">
+      <c r="C165" s="8">
         <v>44439</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="75" customHeight="1">
-      <c r="A166" s="11" t="s">
+      <c r="A166" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C166" s="6">
+      <c r="C166" s="4">
         <v>44440</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="75" customHeight="1">
-      <c r="A167" s="11" t="s">
+      <c r="A167" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C167" s="6">
+      <c r="C167" s="4">
         <v>44440</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="75" customHeight="1">
-      <c r="A168" s="11" t="s">
+      <c r="A168" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C168" s="6">
+      <c r="C168" s="4">
         <v>44440</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="75" customHeight="1">
-      <c r="A169" s="11" t="s">
+      <c r="A169" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C169" s="6">
+      <c r="C169" s="4">
         <v>44440</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="75" customHeight="1">
-      <c r="A170" s="11" t="s">
+      <c r="A170" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C170" s="6">
+      <c r="C170" s="4">
         <v>44440</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="75" customHeight="1">
-      <c r="A171" s="11" t="s">
+      <c r="A171" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C171" s="6">
+      <c r="C171" s="4">
         <v>44440</v>
       </c>
     </row>
@@ -2517,7 +2675,7 @@
       <c r="A172" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C172" s="6">
+      <c r="C172" s="4">
         <v>44440</v>
       </c>
     </row>
@@ -2525,84 +2683,333 @@
       <c r="A173" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C173" s="6">
+      <c r="C173" s="4">
         <v>44440</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="75" customHeight="1">
-      <c r="A174" s="11" t="s">
+      <c r="A174" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C174" s="6">
+      <c r="C174" s="4">
         <v>44440</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="75" customHeight="1">
-      <c r="A175" s="11" t="s">
+      <c r="A175" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C175" s="6">
+      <c r="C175" s="4">
         <v>44440</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="75" customHeight="1">
-      <c r="A176" s="11" t="s">
+      <c r="A176" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="C176" s="6">
+      <c r="C176" s="4">
         <v>44440</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="75" customHeight="1">
-      <c r="A177" s="11" t="s">
+    <row r="177" spans="1:5" ht="75" customHeight="1">
+      <c r="A177" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C177" s="6">
+      <c r="C177" s="4">
         <v>44440</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="75" customHeight="1">
-      <c r="A178" s="11"/>
-    </row>
-    <row r="179" spans="1:3" ht="75" customHeight="1">
-      <c r="A179" s="11"/>
-    </row>
-    <row r="180" spans="1:3" ht="75" customHeight="1">
-      <c r="A180" s="11"/>
-    </row>
-    <row r="181" spans="1:3" ht="75" customHeight="1">
-      <c r="A181" s="11"/>
-    </row>
-    <row r="182" spans="1:3" ht="75" customHeight="1">
-      <c r="A182" s="11"/>
-    </row>
-    <row r="183" spans="1:3" ht="75" customHeight="1"/>
-    <row r="184" spans="1:3" ht="75" customHeight="1"/>
-    <row r="185" spans="1:3" ht="75" customHeight="1"/>
-    <row r="186" spans="1:3" ht="75" customHeight="1"/>
-    <row r="187" spans="1:3" ht="75" customHeight="1"/>
-    <row r="188" spans="1:3" ht="75" customHeight="1"/>
-    <row r="189" spans="1:3" ht="75" customHeight="1"/>
-    <row r="190" spans="1:3" ht="75" customHeight="1"/>
-    <row r="191" spans="1:3" ht="75" customHeight="1"/>
-    <row r="192" spans="1:3" ht="75" customHeight="1"/>
-    <row r="193" ht="75" customHeight="1"/>
-    <row r="194" ht="75" customHeight="1"/>
-    <row r="195" ht="75" customHeight="1"/>
-    <row r="196" ht="75" customHeight="1"/>
-    <row r="197" ht="75" customHeight="1"/>
-    <row r="198" ht="75" customHeight="1"/>
-    <row r="199" ht="75" customHeight="1"/>
-    <row r="200" ht="75" customHeight="1"/>
-    <row r="201" ht="75" customHeight="1"/>
-    <row r="202" ht="75" customHeight="1"/>
-    <row r="203" ht="75" customHeight="1"/>
-    <row r="204" ht="75" customHeight="1"/>
-    <row r="205" ht="75" customHeight="1"/>
-    <row r="206" ht="75" customHeight="1"/>
-    <row r="207" ht="75" customHeight="1"/>
+    <row r="178" spans="1:5" s="2" customFormat="1" ht="75" customHeight="1">
+      <c r="A178" s="5"/>
+      <c r="C178" s="4">
+        <v>44441</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" s="2" customFormat="1" ht="75" customHeight="1">
+      <c r="A179" s="5"/>
+      <c r="C179" s="4">
+        <v>44442</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" s="2" customFormat="1" ht="75" customHeight="1">
+      <c r="A180" s="5"/>
+      <c r="C180" s="4">
+        <v>44443</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" s="2" customFormat="1" ht="75" customHeight="1">
+      <c r="A181" s="5"/>
+      <c r="C181" s="4">
+        <v>44444</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="75" customHeight="1">
+      <c r="A182" s="5"/>
+      <c r="C182" s="4">
+        <v>44445</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="75" customHeight="1">
+      <c r="A183" s="5"/>
+      <c r="C183" s="8">
+        <v>44446</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" s="2" customFormat="1" ht="75" customHeight="1">
+      <c r="A184" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C184" s="8">
+        <v>44447</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="75" customHeight="1">
+      <c r="A185" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C185" s="8">
+        <v>44447</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="75" customHeight="1">
+      <c r="A186" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C186" s="8">
+        <v>44447</v>
+      </c>
+      <c r="D186" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="75" customHeight="1">
+      <c r="A187" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C187" s="8">
+        <v>44447</v>
+      </c>
+      <c r="D187" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" ht="75" customHeight="1">
+      <c r="A188" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C188" s="8">
+        <v>44447</v>
+      </c>
+      <c r="D188" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" ht="75" customHeight="1">
+      <c r="A189" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C189" s="8">
+        <v>44447</v>
+      </c>
+      <c r="D189" s="17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" ht="75" customHeight="1">
+      <c r="A190" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C190" s="8">
+        <v>44447</v>
+      </c>
+      <c r="D190" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" ht="75" customHeight="1">
+      <c r="A191" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C191" s="8">
+        <v>44447</v>
+      </c>
+      <c r="D191" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="75" customHeight="1">
+      <c r="A192" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C192" s="8">
+        <v>44447</v>
+      </c>
+      <c r="D192" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="75" customHeight="1">
+      <c r="A193" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C193" s="8">
+        <v>44447</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="75" customHeight="1">
+      <c r="A194" s="5"/>
+      <c r="D194" s="3"/>
+    </row>
+    <row r="195" spans="1:4" ht="75" customHeight="1">
+      <c r="A195" s="5"/>
+      <c r="D195" s="3"/>
+    </row>
+    <row r="196" spans="1:4" ht="75" customHeight="1">
+      <c r="A196" s="5"/>
+      <c r="D196" s="3"/>
+    </row>
+    <row r="197" spans="1:4" ht="75" customHeight="1">
+      <c r="A197" s="5"/>
+      <c r="D197" s="3"/>
+    </row>
+    <row r="198" spans="1:4" ht="75" customHeight="1">
+      <c r="A198" s="5"/>
+      <c r="D198" s="3"/>
+    </row>
+    <row r="199" spans="1:4" ht="75" customHeight="1">
+      <c r="A199" s="5"/>
+      <c r="D199" s="3"/>
+    </row>
+    <row r="200" spans="1:4" ht="75" customHeight="1">
+      <c r="A200" s="5"/>
+      <c r="D200" s="3"/>
+    </row>
+    <row r="201" spans="1:4" ht="75" customHeight="1">
+      <c r="D201" s="3"/>
+    </row>
+    <row r="202" spans="1:4" ht="75" customHeight="1">
+      <c r="D202" s="3"/>
+    </row>
+    <row r="203" spans="1:4" ht="75" customHeight="1">
+      <c r="D203" s="3"/>
+    </row>
+    <row r="204" spans="1:4" ht="75" customHeight="1">
+      <c r="D204" s="3"/>
+    </row>
+    <row r="205" spans="1:4" ht="75" customHeight="1">
+      <c r="D205" s="3"/>
+    </row>
+    <row r="206" spans="1:4" ht="75" customHeight="1">
+      <c r="D206" s="3"/>
+    </row>
+    <row r="207" spans="1:4" ht="75" customHeight="1">
+      <c r="D207" s="3"/>
+    </row>
+    <row r="208" spans="1:4" ht="75" customHeight="1"/>
+    <row r="209" ht="75" customHeight="1"/>
+    <row r="210" ht="75" customHeight="1"/>
+    <row r="211" ht="75" customHeight="1"/>
+    <row r="212" ht="75" customHeight="1"/>
   </sheetData>
   <mergeCells count="72">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="D7:D11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="D22:D26"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="C27:C31"/>
+    <mergeCell ref="D27:D31"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="C32:C36"/>
+    <mergeCell ref="D32:D36"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="C37:C41"/>
+    <mergeCell ref="D37:D41"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="B42:B46"/>
+    <mergeCell ref="C42:C46"/>
+    <mergeCell ref="D42:D46"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="B47:B51"/>
+    <mergeCell ref="C47:C51"/>
+    <mergeCell ref="D47:D51"/>
+    <mergeCell ref="A52:A56"/>
+    <mergeCell ref="B52:B56"/>
+    <mergeCell ref="C52:C56"/>
+    <mergeCell ref="D52:D56"/>
+    <mergeCell ref="A62:A66"/>
+    <mergeCell ref="B62:B66"/>
+    <mergeCell ref="C62:C66"/>
+    <mergeCell ref="D62:D66"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="B67:B71"/>
+    <mergeCell ref="C67:C71"/>
+    <mergeCell ref="D67:D71"/>
+    <mergeCell ref="B72:B76"/>
+    <mergeCell ref="C72:C76"/>
+    <mergeCell ref="D72:D76"/>
     <mergeCell ref="D57:D61"/>
     <mergeCell ref="D82:D86"/>
     <mergeCell ref="D77:D81"/>
@@ -2619,62 +3026,6 @@
     <mergeCell ref="C82:C86"/>
     <mergeCell ref="A67:A71"/>
     <mergeCell ref="A72:A76"/>
-    <mergeCell ref="B67:B71"/>
-    <mergeCell ref="C67:C71"/>
-    <mergeCell ref="D67:D71"/>
-    <mergeCell ref="B72:B76"/>
-    <mergeCell ref="C72:C76"/>
-    <mergeCell ref="D72:D76"/>
-    <mergeCell ref="A52:A56"/>
-    <mergeCell ref="B52:B56"/>
-    <mergeCell ref="C52:C56"/>
-    <mergeCell ref="D52:D56"/>
-    <mergeCell ref="A62:A66"/>
-    <mergeCell ref="B62:B66"/>
-    <mergeCell ref="C62:C66"/>
-    <mergeCell ref="D62:D66"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="B42:B46"/>
-    <mergeCell ref="C42:C46"/>
-    <mergeCell ref="D42:D46"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="B47:B51"/>
-    <mergeCell ref="C47:C51"/>
-    <mergeCell ref="D47:D51"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="C32:C36"/>
-    <mergeCell ref="D32:D36"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="B37:B41"/>
-    <mergeCell ref="C37:C41"/>
-    <mergeCell ref="D37:D41"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="D22:D26"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="C27:C31"/>
-    <mergeCell ref="D27:D31"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="D17:D21"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="C7:C11"/>
-    <mergeCell ref="D7:D11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
